--- a/ig/ch-elm/CodeSystem-ch-elm-observation-profile-vs.xlsx
+++ b/ig/ch-elm/CodeSystem-ch-elm-observation-profile-vs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.6.0</t>
+    <t>1.7.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-31T11:15:20+00:00</t>
+    <t>2024-11-28T14:18:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -144,7 +144,7 @@
     <t>http://fhir.ch/ig/ch-elm/StructureDefinition/ch-elm-observation-rto</t>
   </si>
   <si>
-    <t>http://fhir.ch/ig/ch-elm/StructureDefinition/ch-elm-observation-pq</t>
+    <t>http://fhir.ch/ig/ch-elm/StructureDefinition/ch-elm-observation-pq-virl</t>
   </si>
 </sst>
 </file>

--- a/ig/ch-elm/CodeSystem-ch-elm-observation-profile-vs.xlsx
+++ b/ig/ch-elm/CodeSystem-ch-elm-observation-profile-vs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.7.0</t>
+    <t>1.8.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-28T14:18:34+00:00</t>
+    <t>2025-02-04T09:19:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/CodeSystem-ch-elm-observation-profile-vs.xlsx
+++ b/ig/ch-elm/CodeSystem-ch-elm-observation-profile-vs.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="48">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.8.0</t>
+    <t>1.9.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T09:19:33+00:00</t>
+    <t>2025-03-18T17:14:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -144,7 +144,19 @@
     <t>http://fhir.ch/ig/ch-elm/StructureDefinition/ch-elm-observation-rto</t>
   </si>
   <si>
+    <t>http://fhir.ch/ig/ch-elm/StructureDefinition/ch-elm-observation-geno</t>
+  </si>
+  <si>
+    <t>http://fhir.ch/ig/ch-elm/StructureDefinition/ch-elm-observation-hiv-rec</t>
+  </si>
+  <si>
     <t>http://fhir.ch/ig/ch-elm/StructureDefinition/ch-elm-observation-pq-virl</t>
+  </si>
+  <si>
+    <t>http://fhir.ch/ig/ch-elm/StructureDefinition/ch-elm-observation-component-conc</t>
+  </si>
+  <si>
+    <t>http://fhir.ch/ig/ch-elm/StructureDefinition/ch-elm-observation-pq-ab</t>
   </si>
 </sst>
 </file>
@@ -457,7 +469,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -507,6 +519,46 @@
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/ig/ch-elm/CodeSystem-ch-elm-observation-profile-vs.xlsx
+++ b/ig/ch-elm/CodeSystem-ch-elm-observation-profile-vs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.9.0</t>
+    <t>1.9.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-18T17:14:46+00:00</t>
+    <t>2025-03-26T08:01:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/CodeSystem-ch-elm-observation-profile-vs.xlsx
+++ b/ig/ch-elm/CodeSystem-ch-elm-observation-profile-vs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.9.1</t>
+    <t>1.10.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-26T08:01:17+00:00</t>
+    <t>2025-06-23T21:17:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/CodeSystem-ch-elm-observation-profile-vs.xlsx
+++ b/ig/ch-elm/CodeSystem-ch-elm-observation-profile-vs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.10.0</t>
+    <t>1.11.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-23T21:17:45+00:00</t>
+    <t>2025-08-13T07:34:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/CodeSystem-ch-elm-observation-profile-vs.xlsx
+++ b/ig/ch-elm/CodeSystem-ch-elm-observation-profile-vs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.11.0</t>
+    <t>1.12.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-13T07:34:00+00:00</t>
+    <t>2025-10-21T11:52:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/CodeSystem-ch-elm-observation-profile-vs.xlsx
+++ b/ig/ch-elm/CodeSystem-ch-elm-observation-profile-vs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.12.0</t>
+    <t>1.13.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-21T11:52:21+00:00</t>
+    <t>2025-11-25T09:58:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/CodeSystem-ch-elm-observation-profile-vs.xlsx
+++ b/ig/ch-elm/CodeSystem-ch-elm-observation-profile-vs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.13.0</t>
+    <t>1.13.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-25T09:58:53+00:00</t>
+    <t>2026-01-21T11:21:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
